--- a/vertx-env/exec-toolkit/configuration/menu/zero-erp/MENU-SIDE-1200-5720$-zero.vendor-w.xlsx
+++ b/vertx-env/exec-toolkit/configuration/menu/zero-erp/MENU-SIDE-1200-5720$-zero.vendor-w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE957BFC-9ADB-BB47-A56F-9724E61D74D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1B7098-6F84-7549-AE8E-8E0191765A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -850,7 +850,7 @@
   <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
